--- a/Main/Data-Final.xlsx
+++ b/Main/Data-Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Database Project\crime-reporting-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\PROJECT\crime-reporting-system\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20731468-38A7-4A09-8C6B-4964F4E7EA5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8D2C7-92B9-4B7D-845C-04BF3FD90404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10008" windowHeight="11148" tabRatio="747" firstSheet="4" activeTab="4" xr2:uid="{D4EE5472-1AC6-48C4-81D4-CD8D7E9B9919}"/>
+    <workbookView xWindow="6804" yWindow="732" windowWidth="15528" windowHeight="11148" tabRatio="747" firstSheet="1" activeTab="7" xr2:uid="{D4EE5472-1AC6-48C4-81D4-CD8D7E9B9919}"/>
   </bookViews>
   <sheets>
     <sheet name="data guide" sheetId="8" r:id="rId1"/>
@@ -2232,6 +2232,96 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2245,96 +2335,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,36 +2959,36 @@
       <c r="H9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="227" t="s">
+      <c r="I9" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="227"/>
-      <c r="K9" s="227"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
       <c r="L9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="227" t="s">
+      <c r="M9" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227" t="s">
+      <c r="N9" s="226"/>
+      <c r="O9" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="227"/>
-      <c r="Q9" s="227"/>
-      <c r="R9" s="230"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="229"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="233">
+      <c r="C10" s="232">
         <v>3</v>
       </c>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="218">
+      <c r="E10" s="248">
         <v>1</v>
       </c>
       <c r="F10" s="147" t="s">
@@ -2997,7 +2997,7 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="238">
+      <c r="H10" s="237">
         <v>1500</v>
       </c>
       <c r="I10" s="148">
@@ -3009,7 +3009,7 @@
       <c r="K10" s="148">
         <v>3110013541</v>
       </c>
-      <c r="L10" s="240">
+      <c r="L10" s="216">
         <v>311</v>
       </c>
       <c r="M10" s="12">
@@ -3018,33 +3018,33 @@
       <c r="N10" s="12">
         <v>31195329</v>
       </c>
-      <c r="O10" s="240">
+      <c r="O10" s="216">
         <v>311801271</v>
       </c>
-      <c r="P10" s="240">
+      <c r="P10" s="216">
         <v>311910754</v>
       </c>
-      <c r="Q10" s="240">
+      <c r="Q10" s="216">
         <v>311702278</v>
       </c>
-      <c r="R10" s="247">
+      <c r="R10" s="217">
         <v>311900236</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="229"/>
-      <c r="C11" s="233">
+      <c r="B11" s="228"/>
+      <c r="C11" s="232">
         <v>3</v>
       </c>
-      <c r="D11" s="228"/>
-      <c r="E11" s="218"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="248"/>
       <c r="F11" s="147" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="H11" s="238"/>
+      <c r="H11" s="237"/>
       <c r="I11" s="148">
         <v>3120126981</v>
       </c>
@@ -3054,29 +3054,29 @@
       <c r="K11" s="148">
         <v>3121678247</v>
       </c>
-      <c r="L11" s="240"/>
+      <c r="L11" s="216"/>
       <c r="M11" s="12">
         <v>31208421</v>
       </c>
       <c r="N11" s="12">
         <v>31123795</v>
       </c>
-      <c r="O11" s="240"/>
-      <c r="P11" s="240"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="247"/>
+      <c r="O11" s="216"/>
+      <c r="P11" s="216"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="217"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="234">
+      <c r="C12" s="233">
         <v>4</v>
       </c>
-      <c r="D12" s="225" t="s">
+      <c r="D12" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="226">
+      <c r="E12" s="245">
         <v>7</v>
       </c>
       <c r="F12" s="149" t="s">
@@ -3085,7 +3085,7 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="238">
+      <c r="H12" s="237">
         <v>120</v>
       </c>
       <c r="I12" s="150">
@@ -3097,7 +3097,7 @@
       <c r="K12" s="150">
         <v>4710076974</v>
       </c>
-      <c r="L12" s="241">
+      <c r="L12" s="220">
         <v>471</v>
       </c>
       <c r="M12" s="13">
@@ -3106,31 +3106,31 @@
       <c r="N12" s="13">
         <v>47112370</v>
       </c>
-      <c r="O12" s="241">
+      <c r="O12" s="220">
         <v>471116912</v>
       </c>
-      <c r="P12" s="241">
+      <c r="P12" s="220">
         <v>471009631</v>
       </c>
-      <c r="Q12" s="241">
+      <c r="Q12" s="220">
         <v>471904210</v>
       </c>
-      <c r="R12" s="250">
+      <c r="R12" s="221">
         <v>472000542</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="217"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="226"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="245"/>
       <c r="F13" s="149" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="238"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="150">
         <v>4720182689</v>
       </c>
@@ -3140,29 +3140,29 @@
       <c r="K13" s="150">
         <v>4720105890</v>
       </c>
-      <c r="L13" s="241"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="13">
         <v>47127649</v>
       </c>
       <c r="N13" s="13">
         <v>47134869</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="250"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="246" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="235">
+      <c r="C14" s="234">
         <v>7</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="220">
+      <c r="E14" s="250">
         <v>3</v>
       </c>
       <c r="F14" s="151" t="s">
@@ -3171,7 +3171,7 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="238">
+      <c r="H14" s="237">
         <v>850</v>
       </c>
       <c r="I14" s="152">
@@ -3183,7 +3183,7 @@
       <c r="K14" s="152">
         <v>7310812657</v>
       </c>
-      <c r="L14" s="242">
+      <c r="L14" s="239">
         <v>732</v>
       </c>
       <c r="M14" s="14">
@@ -3192,31 +3192,31 @@
       <c r="N14" s="14">
         <v>73214985</v>
       </c>
-      <c r="O14" s="248">
+      <c r="O14" s="218">
         <v>731801246</v>
       </c>
-      <c r="P14" s="248">
+      <c r="P14" s="218">
         <v>732104141</v>
       </c>
-      <c r="Q14" s="248">
+      <c r="Q14" s="218">
         <v>731901241</v>
       </c>
-      <c r="R14" s="249">
+      <c r="R14" s="219">
         <v>731706137</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="216"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="220"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="250"/>
       <c r="F15" s="151" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="238"/>
+      <c r="H15" s="237"/>
       <c r="I15" s="152">
         <v>7320219183</v>
       </c>
@@ -3226,29 +3226,29 @@
       <c r="K15" s="152">
         <v>7310613751</v>
       </c>
-      <c r="L15" s="242"/>
+      <c r="L15" s="239"/>
       <c r="M15" s="14">
         <v>73248642</v>
       </c>
       <c r="N15" s="14">
         <v>73217642</v>
       </c>
-      <c r="O15" s="248"/>
-      <c r="P15" s="248"/>
-      <c r="Q15" s="248"/>
-      <c r="R15" s="249"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="219"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="236">
+      <c r="C16" s="235">
         <v>8</v>
       </c>
-      <c r="D16" s="221" t="s">
+      <c r="D16" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="223">
+      <c r="E16" s="242">
         <v>6</v>
       </c>
       <c r="F16" s="153" t="s">
@@ -3257,7 +3257,7 @@
       <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="238">
+      <c r="H16" s="237">
         <v>160</v>
       </c>
       <c r="I16" s="154">
@@ -3269,7 +3269,7 @@
       <c r="K16" s="154">
         <v>8610008641</v>
       </c>
-      <c r="L16" s="243">
+      <c r="L16" s="222">
         <v>861</v>
       </c>
       <c r="M16" s="15">
@@ -3278,33 +3278,33 @@
       <c r="N16" s="15">
         <v>86100521</v>
       </c>
-      <c r="O16" s="243">
+      <c r="O16" s="222">
         <v>861901247</v>
       </c>
-      <c r="P16" s="243">
+      <c r="P16" s="222">
         <v>861803217</v>
       </c>
-      <c r="Q16" s="243">
+      <c r="Q16" s="222">
         <v>862001644</v>
       </c>
-      <c r="R16" s="245">
+      <c r="R16" s="224">
         <v>862104611</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="232"/>
-      <c r="C17" s="237">
+      <c r="B17" s="231"/>
+      <c r="C17" s="236">
         <v>8</v>
       </c>
-      <c r="D17" s="222"/>
-      <c r="E17" s="224"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="243"/>
       <c r="F17" s="155" t="s">
         <v>224</v>
       </c>
       <c r="G17" s="16">
         <v>2</v>
       </c>
-      <c r="H17" s="239"/>
+      <c r="H17" s="238"/>
       <c r="I17" s="156">
         <v>8620099173</v>
       </c>
@@ -3314,38 +3314,31 @@
       <c r="K17" s="156">
         <v>8610012865</v>
       </c>
-      <c r="L17" s="244"/>
+      <c r="L17" s="223"/>
       <c r="M17" s="17">
         <v>86100764</v>
       </c>
       <c r="N17" s="17">
         <v>86107531</v>
       </c>
-      <c r="O17" s="244"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="246"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="225"/>
     </row>
     <row r="18" spans="2:18" ht="19.2" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B10:B11"/>
@@ -3362,16 +3355,23 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3382,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D2D23E-8B77-45C9-A974-374E8D268756}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4430,7 +4430,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4627,7 +4627,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4818,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54D03A-AEBC-4F22-9615-5F124DA0F6D1}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5654,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9392B2-AE1C-4A46-BE78-ED5EF1B6125B}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -6468,7 +6468,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -7224,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED63A51-7105-4153-BFAD-6BA30CFB25E9}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
